--- a/Benefit/Benefit_2022.xlsx
+++ b/Benefit/Benefit_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/candiceyu/Documents/PSTAT296B/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40C4DBF3-3FA6-4D43-A67C-53E1DB6C38E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2B7AE5-BA6E-E94D-BE5E-DD69F89707E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15980" xr2:uid="{44C453D4-7026-6640-A66D-511ABA5D6617}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25840" windowHeight="15980" xr2:uid="{44C453D4-7026-6640-A66D-511ABA5D6617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,11 +781,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D7CD8D-F769-9B4A-865F-F642BAA9A1A9}">
   <dimension ref="A1:BX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
